--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS132_VerifKelPeserta.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS132_VerifKelPeserta.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D52187AB-807C-44D3-B918-CA9008FC6801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B578F36-1FA2-4CFB-B311-607F8107A343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DPLKKPS132-001" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
   <si>
     <t>RUN</t>
   </si>
@@ -116,35 +116,32 @@
     <t>KEP.TRX.436 Setuju</t>
   </si>
   <si>
-    <t>M13220800000026</t>
+    <t>EXPLAIN</t>
+  </si>
+  <si>
+    <t>Diverifikasi</t>
+  </si>
+  <si>
+    <t>DiKembalikan Ke Register</t>
+  </si>
+  <si>
+    <t>M13220800000023</t>
+  </si>
+  <si>
+    <t>Username : 31816;
+Password : bni1234;
+Role : Penyelia Settlement;
+No. Register : M13220800000023;
+Status Verifikasi : 0 : Kembalikan ke Register;
+Keterangan Verifikasi : KEP.TRX.436 tidak disetujui</t>
   </si>
   <si>
     <t>Username : 31816;
 Password : bni1234;
 Role : 09;
-No. Register : M13220800000026;
+No. Register : M13220800000023;
 Status Verifikasi : 1 : Setuju;
 Keterangan Verifikasi : KEP.TRX.436 Setuju</t>
-  </si>
-  <si>
-    <t>EXPLAIN</t>
-  </si>
-  <si>
-    <t>Diverifikasi</t>
-  </si>
-  <si>
-    <t>DiKembalikan Ke Register</t>
-  </si>
-  <si>
-    <t>M13220800000025</t>
-  </si>
-  <si>
-    <t>Username : 31816;
-Password : bni1234;
-Role : Penyelia Settlement;
-No. Register : M13220800000025;
-Status Verifikasi : 0 : Kembalikan ke Register;
-Keterangan Verifikasi : KEP.TRX.436 tidak disetujui</t>
   </si>
 </sst>
 </file>
@@ -536,8 +533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{653A54F0-D01B-49C0-BB41-F0FC7D2164BA}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +609,7 @@
         <v>28</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="89.25" x14ac:dyDescent="0.25">
@@ -632,7 +629,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="3">
         <v>31816</v>
@@ -656,7 +653,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="O2" s="4">
         <v>1</v>
@@ -665,7 +662,7 @@
         <v>30</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -698,8 +695,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A75AAA4-F28F-45B6-8D73-FB1F2606A1FB}">
   <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +771,7 @@
         <v>28</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="102" x14ac:dyDescent="0.25">
@@ -794,7 +791,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3">
         <v>31816</v>
@@ -818,7 +815,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="O2" s="4">
         <v>0</v>
@@ -827,7 +824,7 @@
         <v>29</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">

--- a/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS132_VerifKelPeserta.xlsx
+++ b/Lib_Repo_Excel/FileExcel_DPLK/DPLKKPS132_VerifKelPeserta.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1427\Documents\BNI\DPLK\Lib_Repo_Excel\FileExcel_DPLK\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B578F36-1FA2-4CFB-B311-607F8107A343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4013A8C6-1580-4CEA-87A5-BC0370C8D11A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>RUN</t>
   </si>
@@ -126,14 +126,6 @@
   </si>
   <si>
     <t>M13220800000023</t>
-  </si>
-  <si>
-    <t>Username : 31816;
-Password : bni1234;
-Role : Penyelia Settlement;
-No. Register : M13220800000023;
-Status Verifikasi : 0 : Kembalikan ke Register;
-Keterangan Verifikasi : KEP.TRX.436 tidak disetujui</t>
   </si>
   <si>
     <t>Username : 31816;
@@ -142,6 +134,17 @@
 No. Register : M13220800000023;
 Status Verifikasi : 1 : Setuju;
 Keterangan Verifikasi : KEP.TRX.436 Setuju</t>
+  </si>
+  <si>
+    <t>M13220800000039</t>
+  </si>
+  <si>
+    <t>Username : 31816;
+Password : bni1234;
+Role : Penyelia Settlement;
+No. Register : M13220800000039;
+Status Verifikasi : 0 : Kembalikan ke Register;
+Keterangan Verifikasi : KEP.TRX.436 tidak disetujui</t>
   </si>
 </sst>
 </file>
@@ -534,7 +537,7 @@
   <dimension ref="A1:Q4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -629,7 +632,7 @@
         <v>21</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" s="3">
         <v>31816</v>
@@ -791,7 +794,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G2" s="3">
         <v>31816</v>
@@ -815,7 +818,7 @@
         <v>25</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O2" s="4">
         <v>0</v>
